--- a/thong_so_duong_tron.xlsx
+++ b/thong_so_duong_tron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiT_Car_Racing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266BA04-B78C-49D1-BEBA-4B8D932BD56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781C21A5-8C87-4ED0-9506-6B3630F3CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="170" windowWidth="16200" windowHeight="10060" xr2:uid="{CBD2C88F-4D6D-48AB-A8E3-9B93F86B247F}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="21760" windowHeight="13960" xr2:uid="{CBD2C88F-4D6D-48AB-A8E3-9B93F86B247F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>stt</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Z1</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
 </sst>
 </file>
@@ -111,99 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>162901</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A1511F-12CB-C1B3-0439-63BF4062EF6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876801" y="565150"/>
-          <a:ext cx="304800" cy="150201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182448</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C680E299-C2EF-0CC3-8605-5E7804DC683D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876801" y="736601"/>
-          <a:ext cx="406400" cy="182447"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EF206E-AAE7-4C93-8A01-9178D013FC24}">
-  <dimension ref="A3:H18"/>
+  <dimension ref="A3:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -522,22 +438,31 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -548,22 +473,69 @@
         <v>-2.06</v>
       </c>
       <c r="D4">
+        <v>0.84</v>
+      </c>
+      <c r="E4">
+        <f>K4+0.15</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.79</v>
+      </c>
+      <c r="G4">
+        <v>2.77</v>
+      </c>
+      <c r="H4">
+        <v>-3.05</v>
+      </c>
+      <c r="I4">
+        <v>-2.06</v>
+      </c>
+      <c r="K4">
+        <f>SQRT(L4)</f>
+        <v>0.99</v>
+      </c>
+      <c r="L4">
         <v>0.98009999999999997</v>
       </c>
-      <c r="E4">
+      <c r="N4" t="str">
+        <f>TEXT( B4,"0.00")</f>
+        <v>1.78</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:R4" si="0">TEXT( C4,"0.00")</f>
+        <v>-2.06</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>1.14</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="F4">
+      <c r="S4" t="str">
+        <f t="shared" ref="S4" si="1">TEXT( G4,"0.00")</f>
         <v>2.77</v>
       </c>
-      <c r="G4">
+      <c r="T4" t="str">
+        <f t="shared" ref="T4" si="2">TEXT( H4,"0.00")</f>
         <v>-3.05</v>
       </c>
-      <c r="H4">
+      <c r="U4" t="str">
+        <f t="shared" ref="U4" si="3">TEXT( I4,"0.00")</f>
         <v>-2.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="V4" t="str">
+        <f>CONCATENATE(N4,", ",O4,", ",P4,", ",Q4,", ",R4,", ",S4,", ",T4,", ",U4)</f>
+        <v>1.78, -2.06, 0.84, 1.14, 0.79, 2.77, -3.05, -2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -575,24 +547,72 @@
         <v>-0.72</v>
       </c>
       <c r="D5">
+        <f>K5-0.15</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="E5">
+        <f>K5+0.15</f>
+        <v>0.74</v>
+      </c>
+      <c r="F5">
+        <v>0.78</v>
+      </c>
+      <c r="G5">
+        <v>1.37</v>
+      </c>
+      <c r="H5">
+        <v>-1.31</v>
+      </c>
+      <c r="I5">
+        <v>-0.13</v>
+      </c>
+      <c r="K5">
+        <f>SQRT(L5)</f>
+        <v>0.59</v>
+      </c>
+      <c r="L5">
         <v>0.34810000000000002</v>
       </c>
-      <c r="E5">
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N10" si="4">TEXT( B5,"0.00")</f>
+        <v>1.37</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ref="O5:O10" si="5">TEXT( C5,"0.00")</f>
+        <v>-0.72</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P10" si="6">TEXT( D5,"0.00")</f>
+        <v>0.44</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q10" si="7">TEXT( E5,"0.00")</f>
+        <v>0.74</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:R10" si="8">TEXT( F5,"0.00")</f>
         <v>0.78</v>
       </c>
-      <c r="F5">
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S10" si="9">TEXT( G5,"0.00")</f>
         <v>1.37</v>
       </c>
-      <c r="G5">
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T10" si="10">TEXT( H5,"0.00")</f>
         <v>-1.31</v>
       </c>
-      <c r="H5">
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U10" si="11">TEXT( I5,"0.00")</f>
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:V10" si="12">CONCATENATE(N5,", ",O5,", ",P5,", ",Q5,", ",R5,", ",S5,", ",T5,", ",U5)</f>
+        <v>1.37, -0.72, 0.44, 0.74, 0.78, 1.37, -1.31, -0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" ref="A6:A10" si="0">A5+1</f>
+        <f t="shared" ref="A6:A10" si="13">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6">
@@ -602,24 +622,72 @@
         <v>0.39</v>
       </c>
       <c r="D6">
+        <f>K6-0.15</f>
+        <v>0.17</v>
+      </c>
+      <c r="E6">
+        <f>K6+0.15</f>
+        <v>0.47</v>
+      </c>
+      <c r="F6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G6">
+        <v>2.67</v>
+      </c>
+      <c r="H6">
+        <v>0.39</v>
+      </c>
+      <c r="I6">
+        <v>0.71</v>
+      </c>
+      <c r="K6">
+        <f>SQRT(L6)</f>
+        <v>0.32</v>
+      </c>
+      <c r="L6">
         <v>0.1024</v>
       </c>
-      <c r="E6">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F6">
+      <c r="N6" t="str">
+        <f t="shared" si="4"/>
+        <v>2.35</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="5"/>
+        <v>0.39</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="7"/>
+        <v>0.47</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="8"/>
+        <v>2.03</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="9"/>
         <v>2.67</v>
       </c>
-      <c r="G6">
-        <v>0.39</v>
-      </c>
-      <c r="H6">
+      <c r="T6" t="str">
+        <f t="shared" si="10"/>
+        <v>0.39</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="11"/>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="V6" t="str">
+        <f t="shared" si="12"/>
+        <v>2.35, 0.39, 0.17, 0.47, 2.03, 2.67, 0.39, 0.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B7">
@@ -629,24 +697,72 @@
         <v>0.39</v>
       </c>
       <c r="D7">
+        <f>K7-0.15</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>K7+0.15</f>
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>1.73</v>
+      </c>
+      <c r="G7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.22</v>
+      </c>
+      <c r="I7">
+        <v>0.39</v>
+      </c>
+      <c r="K7">
+        <f>SQRT(L7)</f>
+        <v>0.15</v>
+      </c>
+      <c r="L7">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E7">
+      <c r="N7" t="str">
+        <f t="shared" si="4"/>
+        <v>1.88</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="5"/>
+        <v>0.39</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="7"/>
+        <v>0.30</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="8"/>
         <v>1.73</v>
       </c>
-      <c r="F7">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="G7">
+      <c r="S7" t="str">
+        <f t="shared" si="9"/>
+        <v>2.03</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="10"/>
         <v>0.22</v>
       </c>
-      <c r="H7">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="U7" t="str">
+        <f t="shared" si="11"/>
+        <v>0.39</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="12"/>
+        <v>1.88, 0.39, 0.00, 0.30, 1.73, 2.03, 0.22, 0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="B8">
@@ -656,24 +772,72 @@
         <v>0.39</v>
       </c>
       <c r="D8">
+        <f>K8-0.15</f>
+        <v>0.17</v>
+      </c>
+      <c r="E8">
+        <f>K8+0.15</f>
+        <v>0.47</v>
+      </c>
+      <c r="F8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.73</v>
+      </c>
+      <c r="H8">
+        <v>0.39</v>
+      </c>
+      <c r="I8">
+        <v>0.71</v>
+      </c>
+      <c r="K8">
+        <f>SQRT(L8)</f>
+        <v>0.32</v>
+      </c>
+      <c r="L8">
         <v>0.1024</v>
       </c>
-      <c r="E8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F8">
+      <c r="N8" t="str">
+        <f t="shared" si="4"/>
+        <v>1.41</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v>0.39</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="7"/>
+        <v>0.47</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="8"/>
+        <v>1.09</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="9"/>
         <v>1.73</v>
       </c>
-      <c r="G8">
-        <v>0.39</v>
-      </c>
-      <c r="H8">
+      <c r="T8" t="str">
+        <f t="shared" si="10"/>
+        <v>0.39</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="11"/>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="V8" t="str">
+        <f t="shared" si="12"/>
+        <v>1.41, 0.39, 0.17, 0.47, 1.09, 1.73, 0.39, 0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="B9">
@@ -683,24 +847,72 @@
         <v>0.39</v>
       </c>
       <c r="D9">
+        <f>K9-0.15</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>K9+0.15</f>
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.79</v>
+      </c>
+      <c r="G9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.24</v>
+      </c>
+      <c r="I9">
+        <v>0.39</v>
+      </c>
+      <c r="K9">
+        <f>SQRT(L9)</f>
+        <v>0.15</v>
+      </c>
+      <c r="L9">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E9">
+      <c r="N9" t="str">
+        <f t="shared" si="4"/>
+        <v>0.94</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="5"/>
+        <v>0.39</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="6"/>
+        <v>0.00</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="7"/>
+        <v>0.30</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="8"/>
         <v>0.79</v>
       </c>
-      <c r="F9">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G9">
+      <c r="S9" t="str">
+        <f t="shared" si="9"/>
+        <v>1.09</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="10"/>
         <v>0.24</v>
       </c>
-      <c r="H9">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="U9" t="str">
+        <f t="shared" si="11"/>
+        <v>0.39</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="12"/>
+        <v>0.94, 0.39, 0.00, 0.30, 0.79, 1.09, 0.24, 0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="B10">
@@ -710,22 +922,70 @@
         <v>1.59</v>
       </c>
       <c r="D10">
+        <f>K10-0.15</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="E10">
+        <f>K10+0.15</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.21</v>
+      </c>
+      <c r="G10">
+        <v>0.79</v>
+      </c>
+      <c r="H10">
+        <v>1.59</v>
+      </c>
+      <c r="I10">
+        <v>1.88</v>
+      </c>
+      <c r="K10">
+        <f>SQRT(L10)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L10">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="E10">
+      <c r="N10" t="str">
+        <f t="shared" si="4"/>
+        <v>0.50</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="5"/>
+        <v>1.59</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v>0.14</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="7"/>
+        <v>0.44</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="8"/>
         <v>0.21</v>
       </c>
-      <c r="F10">
+      <c r="S10" t="str">
+        <f t="shared" si="9"/>
         <v>0.79</v>
       </c>
-      <c r="G10">
+      <c r="T10" t="str">
+        <f t="shared" si="10"/>
         <v>1.59</v>
       </c>
-      <c r="H10">
+      <c r="U10" t="str">
+        <f t="shared" si="11"/>
         <v>1.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="V10" t="str">
+        <f t="shared" si="12"/>
+        <v>0.50, 1.59, 0.14, 0.44, 0.21, 0.79, 1.59, 1.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -735,23 +995,27 @@
       <c r="C12">
         <v>2.21</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>-2.35</v>
+      </c>
+      <c r="G12">
+        <v>-0.37</v>
+      </c>
+      <c r="H12">
+        <v>2.21</v>
+      </c>
+      <c r="I12">
+        <v>3.2</v>
+      </c>
+      <c r="K12">
+        <f>SQRT(L12)</f>
+        <v>0.99</v>
+      </c>
+      <c r="L12">
         <v>0.98009999999999997</v>
       </c>
-      <c r="E12">
-        <v>-2.35</v>
-      </c>
-      <c r="F12">
-        <v>-0.37</v>
-      </c>
-      <c r="G12">
-        <v>2.21</v>
-      </c>
-      <c r="H12">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>A12+1</f>
         <v>2</v>
@@ -762,69 +1026,92 @@
       <c r="C13">
         <v>0.87</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>-0.95</v>
+      </c>
+      <c r="G13">
+        <v>-0.36</v>
+      </c>
+      <c r="H13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I13">
+        <v>1.46</v>
+      </c>
+      <c r="K13">
+        <f>SQRT(L13)</f>
+        <v>0.59</v>
+      </c>
+      <c r="L13">
         <v>0.34810000000000002</v>
       </c>
-      <c r="E13">
-        <v>-0.95</v>
-      </c>
-      <c r="F13">
-        <v>-0.36</v>
-      </c>
-      <c r="G13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H13">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" ref="A14:A18" si="1">A13+1</f>
+        <f t="shared" ref="A14:A18" si="14">A13+1</f>
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="K14">
+        <f>SQRT(L14)</f>
+        <v>0.32</v>
+      </c>
+      <c r="L14">
         <v>0.1024</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="K15">
+        <f>SQRT(L15)</f>
+        <v>0.15</v>
+      </c>
+      <c r="L15">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="K16">
+        <f>SQRT(L16)</f>
+        <v>0.32</v>
+      </c>
+      <c r="L16">
         <v>0.1024</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="K17">
+        <f>SQRT(L17)</f>
+        <v>0.15</v>
+      </c>
+      <c r="L17">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="K18">
+        <f>SQRT(L18)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L18">
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>